--- a/Bioinformatics/4-AssemblyAssessment/rnasep2/Assembly_RAW/ReadContent/Alignment_Statistics.xlsx
+++ b/Bioinformatics/4-AssemblyAssessment/rnasep2/Assembly_RAW/ReadContent/Alignment_Statistics.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsoldo01/Documents/Recherche/rnasep/Bioinformatics/4-AssemblyAssessment/rnasep2/Assembly_RAW/ReadContent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF310354-79B0-3041-943E-24DBCB2F10CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF89D03-D7C1-D845-BEB2-AD593854A3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B0709630-11BE-3D42-A37F-709CE560802A}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="14180" windowHeight="15640" xr2:uid="{B0709630-11BE-3D42-A37F-709CE560802A}"/>
   </bookViews>
   <sheets>
     <sheet name="PerSampleStats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C2" sqref="C2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
